--- a/debug_splits/split_summary.xlsx
+++ b/debug_splits/split_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>G3_Mean</t>
+          <t>Missing_Values</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>G3_Std</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>G3_Min</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>G3_Max</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Missing_Values</t>
+          <t>Target_Distribution</t>
         </is>
       </c>
     </row>
@@ -482,31 +467,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237</v>
+        <v>900</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>60.0%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.46</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
+          <t>Yes: 52.44%, No: 47.56%</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -516,31 +490,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>20.0%</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.92</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+          <t>Yes: 52.33%, No: 47.67%</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -550,31 +513,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>20.0%</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
+          <t>Yes: 52.33%, No: 47.67%</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/debug_splits/split_summary.xlsx
+++ b/debug_splits/split_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Target_Distribution</t>
+          <t>Target_Mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Target_Std</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Target_Min</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Target_Max</t>
         </is>
       </c>
     </row>
@@ -467,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>89202</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -475,12 +490,23 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>109044</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Yes: 52.44%, No: 47.56%</t>
-        </is>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +516,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>29734</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -498,12 +524,23 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>36296</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Yes: 52.33%, No: 47.67%</t>
-        </is>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -513,7 +550,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300</v>
+        <v>29734</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -521,12 +558,23 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>35795</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Yes: 52.33%, No: 47.67%</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/debug_splits/split_summary.xlsx
+++ b/debug_splits/split_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Target_Mean</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Target_Std</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Target_Min</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Target_Max</t>
+          <t>Target_Distribution</t>
         </is>
       </c>
     </row>
@@ -482,7 +467,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89202</v>
+        <v>3000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -490,23 +475,12 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>109044</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+          <t>no: 90.40%, yes: 9.60%</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -516,7 +490,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29734</v>
+        <v>1000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,23 +498,12 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36296</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>no: 90.40%, yes: 9.60%</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -550,7 +513,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29734</v>
+        <v>1000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -558,23 +521,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35795</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>no: 90.40%, yes: 9.60%</t>
+        </is>
       </c>
     </row>
   </sheetData>
